--- a/DATA_goal/Junction_Flooding_84.xlsx
+++ b/DATA_goal/Junction_Flooding_84.xlsx
@@ -453,8 +453,8 @@
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
@@ -469,9 +469,9 @@
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
@@ -655,103 +655,103 @@
         <v>41516.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.41</v>
+        <v>0.44</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.83</v>
+        <v>0.18</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.69</v>
+        <v>0.17</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.96</v>
+        <v>0.5</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>6.46</v>
+        <v>0.65</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2.42</v>
+        <v>0.24</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.34</v>
+        <v>0.53</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.59</v>
+        <v>0.26</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.09</v>
+        <v>0.11</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.62</v>
+        <v>0.16</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2.87</v>
+        <v>0.29</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>4.39</v>
+        <v>0.44</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.26</v>
+        <v>0.13</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>5.05</v>
+        <v>0.5</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.9</v>
+        <v>0.09</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>31.51</v>
+        <v>3.15</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>6.77</v>
+        <v>0.68</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.78</v>
+        <v>0.28</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.65</v>
+        <v>0.37</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>3.95</v>
+        <v>0.39</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.91</v>
+        <v>0.19</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.55</v>
+        <v>0.15</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.92</v>
+        <v>0.19</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>5.09</v>
+        <v>0.51</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>2.91</v>
+        <v>0.29</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.89</v>
+        <v>0.39</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>4.08</v>
+        <v>0.41</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.88</v>
+        <v>0.09</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.07</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41516.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>5.31</v>
+        <v>0.53</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>3.38</v>
+        <v>0.34</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.65</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>9.800000000000001</v>
+        <v>0.98</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>9.130000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>3.8</v>
+        <v>0.38</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>12.16</v>
+        <v>1.22</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>5.39</v>
+        <v>0.54</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.4</v>
+        <v>0.24</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>3.48</v>
+        <v>0.35</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>4.27</v>
+        <v>0.43</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>4.97</v>
+        <v>0.5</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.15</v>
+        <v>0.11</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>3.11</v>
+        <v>0.31</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>6.17</v>
+        <v>0.62</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>2.52</v>
+        <v>0.25</v>
       </c>
       <c r="R3" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AD3" s="4" t="n">
         <v>0.45</v>
       </c>
-      <c r="S3" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>50.6</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>10.55</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>6.82</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>4.48</v>
-      </c>
       <c r="AE3" s="4" t="n">
-        <v>1.32</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>10.88</v>
+        <v>1.09</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.75</v>
+        <v>0.18</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>4.03</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41516.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>9.859999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>7.02</v>
+        <v>0.7</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>20.38</v>
+        <v>2.04</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>17.5</v>
+        <v>1.75</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>7.54</v>
+        <v>0.75</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>26.46</v>
+        <v>2.65</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>11.32</v>
+        <v>1.13</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>5.07</v>
+        <v>0.51</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>7.47</v>
+        <v>0.75</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>8.380000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>9.140000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.37</v>
+        <v>0.24</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>7.01</v>
+        <v>0.7</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>11.2</v>
+        <v>1.12</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>5.79</v>
+        <v>0.58</v>
       </c>
       <c r="R4" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>10.68</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AE4" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AF4" s="4" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AG4" s="4" t="n">
         <v>0.38</v>
       </c>
-      <c r="S4" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>106.85</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>20.88</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>13.94</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>7.83</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>13.01</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>5.54</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>8.81</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="AF4" s="4" t="n">
-        <v>23.94</v>
-      </c>
-      <c r="AG4" s="4" t="n">
-        <v>3.77</v>
-      </c>
       <c r="AH4" s="4" t="n">
-        <v>8.43</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41516.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>13.25</v>
+        <v>1.33</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9.66</v>
+        <v>0.97</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.64</v>
+        <v>0.06</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>28.05</v>
+        <v>2.81</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>23.67</v>
+        <v>2.37</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>10.27</v>
+        <v>1.03</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>38.57</v>
+        <v>3.86</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>15.6</v>
+        <v>1.56</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.02</v>
+        <v>0.7</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>10.36</v>
+        <v>1.04</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>11.4</v>
+        <v>1.14</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>12.26</v>
+        <v>1.23</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.26</v>
+        <v>0.33</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>9.83</v>
+        <v>0.98</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>14.97</v>
+        <v>1.5</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>8.140000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.35</v>
+        <v>0.04</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>148.14</v>
+        <v>14.81</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>28.53</v>
+        <v>2.85</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>9.57</v>
+        <v>0.96</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>19.18</v>
+        <v>1.92</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>10.42</v>
+        <v>1.04</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.31</v>
+        <v>0.13</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>18.8</v>
+        <v>1.88</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>8.300000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.44</v>
+        <v>0.74</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.15</v>
+        <v>0.91</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>11.99</v>
+        <v>1.2</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>35.03</v>
+        <v>3.5</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.24</v>
+        <v>0.52</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>11.62</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41516.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>4.95</v>
+        <v>0.49</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>3.49</v>
+        <v>0.35</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.31</v>
+        <v>0.03</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>10.16</v>
+        <v>1.02</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>8.77</v>
+        <v>0.88</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>3.77</v>
+        <v>0.38</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>18.42</v>
+        <v>1.84</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>5.65</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>2.59</v>
+        <v>0.26</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>3.69</v>
+        <v>0.37</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>4.19</v>
+        <v>0.42</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>4.59</v>
+        <v>0.46</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>3.43</v>
+        <v>0.34</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>5.72</v>
+        <v>0.57</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>2.85</v>
+        <v>0.29</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>49.79</v>
+        <v>4.98</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>10.7</v>
+        <v>1.07</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>3.58</v>
+        <v>0.36</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>7.17</v>
+        <v>0.72</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>3.97</v>
+        <v>0.4</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>8.460000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>3.04</v>
+        <v>0.3</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>2.8</v>
+        <v>0.28</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>3.59</v>
+        <v>0.36</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>4.41</v>
+        <v>0.44</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>17.06</v>
+        <v>1.71</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>1.86</v>
+        <v>0.19</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>4.2</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41516.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>20.68</v>
+        <v>2.07</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>15.34</v>
+        <v>1.53</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>44.49</v>
+        <v>4.45</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>37.09</v>
+        <v>3.71</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>16.18</v>
+        <v>1.62</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>58.88</v>
+        <v>5.89</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>24.76</v>
+        <v>2.48</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>11.13</v>
+        <v>1.11</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>16.53</v>
+        <v>1.65</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>17.95</v>
+        <v>1.79</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>19.11</v>
+        <v>1.91</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>5.16</v>
+        <v>0.52</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>15.81</v>
+        <v>1.58</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>23.23</v>
+        <v>2.32</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>13.11</v>
+        <v>1.31</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.35</v>
+        <v>0.03</v>
       </c>
       <c r="S7" s="4" t="n">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="T7" s="4" t="n">
-        <v>237.48</v>
+        <v>23.75</v>
       </c>
       <c r="U7" s="4" t="n">
-        <v>44.87</v>
+        <v>4.49</v>
       </c>
       <c r="V7" s="4" t="n">
-        <v>14.94</v>
+        <v>1.49</v>
       </c>
       <c r="W7" s="4" t="n">
-        <v>30.31</v>
+        <v>3.03</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>16.15</v>
+        <v>1.61</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>2.09</v>
+        <v>0.21</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>29.09</v>
+        <v>2.91</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>13.1</v>
+        <v>1.31</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>11.6</v>
+        <v>1.16</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>13.89</v>
+        <v>1.39</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>18.87</v>
+        <v>1.89</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>53.27</v>
+        <v>5.33</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>8.369999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>18.45</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41516.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>9.23</v>
+        <v>0.92</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>6.77</v>
+        <v>0.68</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>19.65</v>
+        <v>1.97</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>16.51</v>
+        <v>1.65</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>7.18</v>
+        <v>0.72</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>31.49</v>
+        <v>3.15</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>10.94</v>
+        <v>1.09</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>4.95</v>
+        <v>0.5</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>7.26</v>
+        <v>0.73</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>7.97</v>
+        <v>0.8</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>8.529999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>2.29</v>
+        <v>0.23</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>6.9</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>10.45</v>
+        <v>1.05</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>5.73</v>
+        <v>0.57</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>101.32</v>
+        <v>10.13</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>20.11</v>
+        <v>2.01</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>6.67</v>
+        <v>0.67</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>13.55</v>
+        <v>1.36</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>7.25</v>
+        <v>0.73</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>0.92</v>
+        <v>0.09</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>14.81</v>
+        <v>1.48</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>5.81</v>
+        <v>0.58</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>5.19</v>
+        <v>0.52</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>6.31</v>
+        <v>0.63</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>8.380000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.31</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>28.86</v>
+        <v>2.89</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>3.67</v>
+        <v>0.37</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>8.15</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41516.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>18.73</v>
+        <v>1.87</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>13.93</v>
+        <v>1.39</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>40.37</v>
+        <v>4.04</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>33.61</v>
+        <v>3.36</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>14.67</v>
+        <v>1.47</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>55.13</v>
+        <v>5.51</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>22.47</v>
+        <v>2.25</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>10.11</v>
+        <v>1.01</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>15.01</v>
+        <v>1.5</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>16.27</v>
+        <v>1.63</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>17.3</v>
+        <v>1.73</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>4.68</v>
+        <v>0.47</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>14.37</v>
+        <v>1.44</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>21.03</v>
+        <v>2.1</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>11.92</v>
+        <v>1.19</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.55</v>
+        <v>0.05</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>214.62</v>
+        <v>21.46</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>40.72</v>
+        <v>4.07</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>13.54</v>
+        <v>1.35</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>27.52</v>
+        <v>2.75</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>14.61</v>
+        <v>1.46</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>1.9</v>
+        <v>0.19</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>26.95</v>
+        <v>2.7</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>11.88</v>
+        <v>1.19</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>10.51</v>
+        <v>1.05</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>12.54</v>
+        <v>1.25</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>17.11</v>
+        <v>1.71</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>49.92</v>
+        <v>4.99</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>7.6</v>
+        <v>0.76</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>16.75</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="10">
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>7.67</v>
+        <v>0.77</v>
       </c>
       <c r="I10" s="4" t="n">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         <v>0</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>0.62</v>
+        <v>0.06</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="4" t="n">
         <v>0</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>3.19</v>
+        <v>0.32</v>
       </c>
       <c r="AA10" s="4" t="n">
         <v>0</v>
@@ -1577,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>7.97</v>
+        <v>0.8</v>
       </c>
       <c r="AG10" s="4" t="n">
         <v>0</v>

--- a/DATA_goal/Junction_Flooding_84.xlsx
+++ b/DATA_goal/Junction_Flooding_84.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,14 +451,14 @@
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
@@ -468,10 +468,10 @@
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
@@ -652,263 +652,263 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41516.34027777778</v>
+        <v>44781.84027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.44</v>
+        <v>0.52</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.65</v>
+        <v>0.31</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.53</v>
+        <v>0.55</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.26</v>
+        <v>0.16</v>
       </c>
       <c r="J2" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L2" s="4" t="n">
         <v>0.11</v>
       </c>
-      <c r="K2" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>0.29</v>
-      </c>
       <c r="M2" s="4" t="n">
-        <v>0.44</v>
+        <v>0.09</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.13</v>
+        <v>0.09</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.5</v>
+        <v>0.27</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0.01</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>3.15</v>
+        <v>2.01</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.68</v>
+        <v>0.48</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.37</v>
+        <v>0.39</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.39</v>
+        <v>0.1</v>
       </c>
       <c r="Y2" s="4" t="n">
         <v>0.02</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.19</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.51</v>
+        <v>0.09</v>
       </c>
       <c r="AD2" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AE2" s="4" t="n">
         <v>0.29</v>
       </c>
-      <c r="AE2" s="4" t="n">
-        <v>0.39</v>
-      </c>
       <c r="AF2" s="4" t="n">
-        <v>0.41</v>
+        <v>0.31</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.21</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41516.34722222222</v>
+        <v>44781.84722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.53</v>
+        <v>1.56</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.34</v>
+        <v>1.09</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.98</v>
+        <v>3</v>
       </c>
       <c r="F3" s="4" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q3" s="4" t="n">
         <v>0.91</v>
       </c>
-      <c r="G3" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N3" s="4" t="n">
+      <c r="R3" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>16.39</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AE3" s="4" t="n">
         <v>0.11</v>
       </c>
-      <c r="O3" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>5.06</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.13</v>
-      </c>
       <c r="AF3" s="4" t="n">
-        <v>1.09</v>
+        <v>3.33</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.18</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.4</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41516.35416666666</v>
+        <v>44781.85416666666</v>
       </c>
       <c r="B4" s="4" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="C4" s="4" t="n">
         <v>0.99</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="D4" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E4" s="4" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="F4" s="4" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="J4" s="4" t="n">
         <v>0.7</v>
       </c>
-      <c r="D4" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="G4" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.51</v>
-      </c>
       <c r="K4" s="4" t="n">
-        <v>0.75</v>
+        <v>1.11</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.84</v>
+        <v>1.11</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.91</v>
+        <v>1.15</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.24</v>
+        <v>0.33</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.7</v>
+        <v>0.98</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.12</v>
+        <v>1.48</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.58</v>
+        <v>0.82</v>
       </c>
       <c r="R4" s="4" t="n">
         <v>0.04</v>
@@ -917,777 +917,257 @@
         <v>0.03</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>10.68</v>
+        <v>14.69</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.09</v>
+        <v>2.84</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.71</v>
+        <v>0.96</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.39</v>
+        <v>1.93</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.99</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.3</v>
+        <v>1.96</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.61</v>
+        <v>0.82</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.55</v>
+        <v>0.7</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.71</v>
+        <v>0.83</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.88</v>
+        <v>1.23</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.39</v>
+        <v>3.61</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.38</v>
+        <v>0.51</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.84</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41516.36111111111</v>
+        <v>44781.86111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.33</v>
+        <v>1.98</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.97</v>
+        <v>1.45</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.81</v>
+        <v>4.11</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.37</v>
+        <v>3.44</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.03</v>
+        <v>1.54</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.86</v>
+        <v>5.8</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.56</v>
+        <v>2.29</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.7</v>
+        <v>1.04</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.04</v>
+        <v>1.6</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.14</v>
+        <v>1.66</v>
       </c>
       <c r="M5" s="4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q5" s="4" t="n">
         <v>1.23</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.8100000000000001</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>0.04</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>14.81</v>
+        <v>22.14</v>
       </c>
       <c r="U5" s="4" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W5" s="4" t="n">
         <v>2.85</v>
       </c>
-      <c r="V5" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>1.92</v>
-      </c>
       <c r="X5" s="4" t="n">
-        <v>1.04</v>
+        <v>1.48</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.13</v>
+        <v>0.2</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.88</v>
+        <v>2.84</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.83</v>
+        <v>1.22</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.74</v>
+        <v>1.06</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.91</v>
+        <v>1.25</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.5</v>
+        <v>5.23</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.78</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.16</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41516.36805555555</v>
+        <v>44781.86804398148</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.49</v>
+        <v>14.84</v>
       </c>
       <c r="C6" s="4" t="n">
+        <v>10.92</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>30.82</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>25.78</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>11.58</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>46.02</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>17.14</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>12.99</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>16.37</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="S6" s="4" t="n">
         <v>0.35</v>
       </c>
-      <c r="D6" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="T6" s="4" t="n">
-        <v>4.98</v>
+        <v>164.22</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>1.07</v>
+        <v>31.59</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>0.36</v>
+        <v>10.54</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>0.72</v>
+        <v>21.44</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>0.4</v>
+        <v>11.08</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.05</v>
+        <v>1.48</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>0.85</v>
+        <v>22.17</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.3</v>
+        <v>9.18</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.28</v>
+        <v>7.93</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.36</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>0.44</v>
+        <v>13.49</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.41</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>1.71</v>
+        <v>41.62</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.19</v>
+        <v>5.81</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41516.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>3.71</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>5.89</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>23.75</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>4.49</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.85</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41516.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>10.13</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41516.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>5.51</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>21.46</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>1.67</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41516.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41516.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>20.27</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>15.24</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>44.19</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>36.95</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>16.82</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>55.77</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>24.54</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>10.82</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>16.51</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>19</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>15.87</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>22.39</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>13.14</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>234.76</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>43.96</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>14.64</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>29.64</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>15.63</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>27.56</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>12.94</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>13.34</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>49.96</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>8.35</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>18.25</v>
+        <v>12.88</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_84.xlsx
+++ b/DATA_goal/Junction_Flooding_84.xlsx
@@ -451,14 +451,14 @@
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
@@ -468,9 +468,9 @@
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
@@ -655,103 +655,103 @@
         <v>44781.84027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.24</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.61</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>20.09</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Y2" s="4" t="n">
         <v>0.25</v>
       </c>
-      <c r="F2" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.02</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>0.2</v>
+        <v>1.98</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.15</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.13</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.87</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.13</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.45</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44781.84722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.56</v>
+        <v>15.58</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.09</v>
+        <v>10.92</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.32</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3</v>
+        <v>30.02</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.55</v>
+        <v>25.49</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.18</v>
+        <v>11.82</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.76</v>
+        <v>37.64</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.68</v>
+        <v>16.75</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.78</v>
+        <v>7.75</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.26</v>
+        <v>12.59</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.22</v>
+        <v>12.18</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.26</v>
+        <v>12.61</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.36</v>
+        <v>3.64</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.08</v>
+        <v>10.77</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.65</v>
+        <v>16.47</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.91</v>
+        <v>9.08</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.49</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.33</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>16.39</v>
+        <v>163.91</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.13</v>
+        <v>31.34</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.07</v>
+        <v>10.75</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.14</v>
+        <v>21.43</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.08</v>
+        <v>10.84</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.48</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.93</v>
+        <v>19.3</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.91</v>
+        <v>9.1</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.77</v>
+        <v>7.72</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.92</v>
+        <v>9.19</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.38</v>
+        <v>13.83</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.33</v>
+        <v>33.29</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.64</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.27</v>
+        <v>12.67</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44781.85416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.37</v>
+        <v>13.71</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.99</v>
+        <v>9.85</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.73</v>
+        <v>27.33</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.31</v>
+        <v>23.07</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.06</v>
+        <v>10.56</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>4.01</v>
+        <v>40.05</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.52</v>
+        <v>15.22</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.7</v>
+        <v>7.03</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.11</v>
+        <v>11.09</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.11</v>
+        <v>11.1</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.15</v>
+        <v>11.48</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.33</v>
+        <v>3.27</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.98</v>
+        <v>9.82</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.48</v>
+        <v>14.84</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.82</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.4</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>14.69</v>
+        <v>146.93</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>2.84</v>
+        <v>28.41</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.96</v>
+        <v>9.59</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.93</v>
+        <v>19.34</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.99</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.33</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.96</v>
+        <v>19.64</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.82</v>
+        <v>8.24</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.7</v>
+        <v>7.03</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.83</v>
+        <v>8.34</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.23</v>
+        <v>12.32</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.61</v>
+        <v>36.14</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.51</v>
+        <v>5.14</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.15</v>
+        <v>11.49</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44781.86111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.98</v>
+        <v>19.75</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.45</v>
+        <v>14.54</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.52</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>4.11</v>
+        <v>41.14</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.44</v>
+        <v>34.38</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.54</v>
+        <v>15.4</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>5.8</v>
+        <v>57.97</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.29</v>
+        <v>22.89</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.04</v>
+        <v>10.44</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.6</v>
+        <v>16.01</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.66</v>
+        <v>16.63</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.74</v>
+        <v>17.36</v>
       </c>
       <c r="N5" s="4" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>21.77</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>12.31</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S5" s="4" t="n">
         <v>0.48</v>
       </c>
-      <c r="O5" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.05</v>
-      </c>
       <c r="T5" s="4" t="n">
-        <v>22.14</v>
+        <v>221.4</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>4.2</v>
+        <v>42.03</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.4</v>
+        <v>14.05</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.85</v>
+        <v>28.53</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.48</v>
+        <v>14.78</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.2</v>
+        <v>1.97</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.84</v>
+        <v>28.42</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.22</v>
+        <v>12.24</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.06</v>
+        <v>10.58</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.25</v>
+        <v>12.51</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.8</v>
+        <v>17.96</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.52</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>5.23</v>
+        <v>52.32</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.78</v>
+        <v>7.76</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.72</v>
+        <v>17.18</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_84.xlsx
+++ b/DATA_goal/Junction_Flooding_84.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,100 +655,100 @@
         <v>44781.84027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.24</v>
+        <v>5.237</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.61</v>
+        <v>1.607</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.48</v>
+        <v>2.478</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.05</v>
+        <v>3.053</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2.52</v>
+        <v>2.519</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.49</v>
+        <v>5.488</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.55</v>
+        <v>1.554</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.02</v>
+        <v>4.022</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.07</v>
+        <v>1.069</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="O2" s="4" t="n">
         <v>0.87</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.75</v>
+        <v>2.749</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.11</v>
+        <v>1.106</v>
       </c>
       <c r="R2" s="4" t="n">
         <v>0.51</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.063</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>20.09</v>
+        <v>20.094</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.8</v>
+        <v>4.803</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.37</v>
+        <v>2.372</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.89</v>
+        <v>3.891</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.03</v>
+        <v>1.034</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.25</v>
+        <v>0.249</v>
       </c>
       <c r="Z2" s="4" t="n">
         <v>1.98</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.15</v>
+        <v>1.154</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.67</v>
+        <v>0.674</v>
       </c>
       <c r="AC2" s="4" t="n">
         <v>0.9399999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.13</v>
+        <v>3.129</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.87</v>
+        <v>2.866</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.13</v>
+        <v>3.128</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.45</v>
+        <v>0.446</v>
       </c>
       <c r="AH2" s="4" t="n">
         <v>1.43</v>
@@ -759,103 +759,103 @@
         <v>44781.84722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>15.58</v>
+        <v>15.584</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>10.92</v>
+        <v>10.923</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>0.32</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>30.02</v>
+        <v>30.015</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>25.49</v>
+        <v>25.495</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>11.82</v>
+        <v>11.822</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>37.64</v>
+        <v>37.638</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>16.75</v>
+        <v>16.755</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>7.75</v>
+        <v>7.753</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>12.59</v>
+        <v>12.595</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>12.18</v>
+        <v>12.178</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>12.61</v>
+        <v>12.609</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.64</v>
+        <v>3.635</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>10.77</v>
+        <v>10.773</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>16.47</v>
+        <v>16.473</v>
       </c>
       <c r="Q3" s="4" t="n">
         <v>9.08</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.49</v>
+        <v>0.493</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.33</v>
+        <v>0.332</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>163.91</v>
+        <v>163.913</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>31.34</v>
+        <v>31.341</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>10.75</v>
+        <v>10.745</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>21.43</v>
+        <v>21.431</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>10.84</v>
+        <v>10.841</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.48</v>
+        <v>1.479</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>19.3</v>
+        <v>19.298</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>9.1</v>
+        <v>9.105</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>7.72</v>
+        <v>7.724</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>9.19</v>
+        <v>9.193</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>13.83</v>
+        <v>13.828</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.13</v>
+        <v>1.133</v>
       </c>
       <c r="AF3" s="4" t="n">
         <v>33.29</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.64</v>
+        <v>5.641</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>12.67</v>
+        <v>12.667</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44781.85416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>13.71</v>
+        <v>13.709</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>9.85</v>
+        <v>9.855</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.29</v>
+        <v>0.292</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>27.33</v>
+        <v>27.331</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>23.07</v>
+        <v>23.074</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>10.56</v>
+        <v>10.565</v>
       </c>
       <c r="H4" s="4" t="n">
         <v>40.05</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>15.22</v>
+        <v>15.217</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>7.03</v>
+        <v>7.031</v>
       </c>
       <c r="K4" s="4" t="n">
         <v>11.09</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>11.1</v>
+        <v>11.098</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>11.48</v>
+        <v>11.484</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.27</v>
+        <v>3.267</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>9.82</v>
+        <v>9.821999999999999</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>14.84</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>8.220000000000001</v>
+        <v>8.221</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.4</v>
+        <v>0.398</v>
       </c>
       <c r="S4" s="4" t="n">
         <v>0.29</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>146.93</v>
+        <v>146.934</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>28.41</v>
+        <v>28.407</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>9.59</v>
+        <v>9.593</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>19.34</v>
+        <v>19.336</v>
       </c>
       <c r="X4" s="4" t="n">
         <v>9.859999999999999</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.33</v>
+        <v>1.331</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>19.64</v>
+        <v>19.636</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>8.24</v>
+        <v>8.236000000000001</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>7.03</v>
+        <v>7.033</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>8.34</v>
+        <v>8.343999999999999</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>12.32</v>
+        <v>12.323</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.716</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>36.14</v>
+        <v>36.141</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.14</v>
+        <v>5.139</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>11.49</v>
+        <v>11.486</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>17.18</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.86804398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>14.84</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>10.92</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>30.82</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>25.78</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>46.02</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>17.14</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>7.84</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>12.02</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>12.48</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>12.99</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>16.37</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>9.220000000000001</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>164.22</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>31.59</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>10.54</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>21.44</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>11.08</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>22.17</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>9.18</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>7.93</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>13.49</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>41.62</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>12.88</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_84.xlsx
+++ b/DATA_goal/Junction_Flooding_84.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
@@ -468,9 +468,9 @@
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
@@ -967,34 +967,34 @@
         <v>44781.86111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>19.75</v>
+        <v>19.755</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>14.54</v>
+        <v>14.538</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.524</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>41.14</v>
+        <v>41.141</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>34.38</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>15.4</v>
+        <v>15.405</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>57.97</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>22.89</v>
+        <v>22.886</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>10.44</v>
+        <v>10.439</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>16.01</v>
+        <v>16.011</v>
       </c>
       <c r="L5" s="4" t="n">
         <v>16.63</v>
@@ -1003,10 +1003,10 @@
         <v>17.36</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.83</v>
+        <v>4.833</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>14.8</v>
+        <v>14.798</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>21.77</v>
@@ -1015,55 +1015,159 @@
         <v>12.31</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.4</v>
+        <v>0.398</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.48</v>
+        <v>0.482</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>221.4</v>
+        <v>221.398</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>42.03</v>
+        <v>42.029</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>14.05</v>
+        <v>14.048</v>
       </c>
       <c r="W5" s="4" t="n">
         <v>28.53</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>14.78</v>
+        <v>14.776</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.97</v>
+        <v>1.972</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>28.42</v>
+        <v>28.419</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>12.24</v>
+        <v>12.239</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>10.58</v>
+        <v>10.584</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>12.51</v>
+        <v>12.507</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>17.96</v>
+        <v>17.956</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.52</v>
+        <v>0.525</v>
       </c>
       <c r="AF5" s="4" t="n">
         <v>52.32</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.76</v>
+        <v>7.761</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>17.18</v>
+        <v>17.185</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44781.86804398148</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>14.84</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>10.92</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>30.82</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>25.78</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>11.58</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>46.02</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>17.14</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>12.99</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>11.09</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>16.37</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>164.22</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>31.59</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>10.54</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>21.44</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>11.08</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>22.17</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>9.18</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>7.93</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>13.49</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>41.62</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>12.88</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_84.xlsx
+++ b/DATA_goal/Junction_Flooding_84.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
@@ -468,9 +468,9 @@
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
@@ -967,34 +967,34 @@
         <v>44781.86111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>19.755</v>
+        <v>19.75</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>14.538</v>
+        <v>14.54</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.524</v>
+        <v>0.52</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>41.141</v>
+        <v>41.14</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>34.38</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>15.405</v>
+        <v>15.4</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>57.97</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>22.886</v>
+        <v>22.89</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>10.439</v>
+        <v>10.44</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>16.011</v>
+        <v>16.01</v>
       </c>
       <c r="L5" s="4" t="n">
         <v>16.63</v>
@@ -1003,10 +1003,10 @@
         <v>17.36</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.833</v>
+        <v>4.83</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>14.798</v>
+        <v>14.8</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>21.77</v>
@@ -1015,159 +1015,55 @@
         <v>12.31</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.398</v>
+        <v>0.4</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.482</v>
+        <v>0.48</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>221.398</v>
+        <v>221.4</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>42.029</v>
+        <v>42.03</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>14.048</v>
+        <v>14.05</v>
       </c>
       <c r="W5" s="4" t="n">
         <v>28.53</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>14.776</v>
+        <v>14.78</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.972</v>
+        <v>1.97</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>28.419</v>
+        <v>28.42</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>12.239</v>
+        <v>12.24</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>10.584</v>
+        <v>10.58</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>12.507</v>
+        <v>12.51</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>17.956</v>
+        <v>17.96</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.525</v>
+        <v>0.52</v>
       </c>
       <c r="AF5" s="4" t="n">
         <v>52.32</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>7.761</v>
+        <v>7.76</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>17.185</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44781.86804398148</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>14.84</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>10.92</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>30.82</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>25.78</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>46.02</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>17.14</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>7.84</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>12.02</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>12.48</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>12.99</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>11.09</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>16.37</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>9.220000000000001</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>164.22</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>31.59</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>10.54</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>21.44</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>11.08</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>22.17</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>9.18</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>7.93</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>13.49</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>41.62</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.81</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>12.88</v>
+        <v>17.18</v>
       </c>
     </row>
   </sheetData>
